--- a/igem2017/sdin/tools/preload/works/circuits/2.xlsx
+++ b/igem2017/sdin/tools/preload/works/circuits/2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="229">
   <si>
     <t>circuitID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,10 +701,6 @@
   </si>
   <si>
     <t>K1587005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11，12，13，14，15，16，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1494,16 +1490,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="12" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="12"/>
+    <col min="1" max="1" width="16.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>560</v>
       </c>
@@ -1519,12 +1515,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -1564,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -1627,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>6</v>
       </c>
@@ -1667,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -1687,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -1707,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>9</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -1748,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -1768,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -1789,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>13</v>
       </c>
@@ -1809,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>14</v>
       </c>
@@ -1829,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>15</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>16</v>
       </c>
@@ -1869,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>17</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>18</v>
       </c>
@@ -1909,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>19</v>
       </c>
@@ -1929,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>20</v>
       </c>
@@ -1949,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>21</v>
       </c>
@@ -1969,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>22</v>
       </c>
@@ -1989,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>23</v>
       </c>
@@ -2009,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>24</v>
       </c>
@@ -2029,15 +2025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>1</v>
       </c>
@@ -2053,7 +2049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>2</v>
       </c>
@@ -2061,12 +2057,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>1</v>
       </c>
@@ -2085,17 +2081,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>10</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>12</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>16</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>18</v>
       </c>
@@ -2127,12 +2123,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>21</v>
       </c>
@@ -2140,7 +2136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>22</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>23</v>
       </c>
@@ -2156,12 +2152,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>9</v>
       </c>
@@ -2177,20 +2173,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1587</v>
       </c>
@@ -2206,12 +2202,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +2227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2251,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2271,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2355,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2375,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2395,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2436,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -2557,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -2590,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -2605,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2635,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -2650,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -2665,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -2695,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -2710,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -2725,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -2755,12 +2751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -2777,17 +2773,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -2803,20 +2799,20 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2827,22 +2823,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>34</v>
       </c>
@@ -2858,20 +2854,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="17"/>
+    <col min="1" max="1" width="16.88671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="17" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2879,20 +2875,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1730</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -2912,18 +2908,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="17">
         <v>0</v>
@@ -2932,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -2952,18 +2948,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="17">
@@ -2976,7 +2972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -2987,7 +2983,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="17">
@@ -2997,18 +2993,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="17">
         <v>0</v>
@@ -3017,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -3037,18 +3033,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="17">
         <v>0</v>
@@ -3057,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -3077,18 +3073,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
@@ -3097,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -3108,7 +3104,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="17">
@@ -3118,18 +3114,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
@@ -3138,18 +3134,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="17">
         <v>0</v>
@@ -3158,18 +3154,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="17">
         <v>0</v>
@@ -3178,18 +3174,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" s="17">
         <v>0</v>
@@ -3198,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" s="17">
         <v>0</v>
@@ -3218,18 +3214,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="17">
@@ -3239,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -3250,7 +3246,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="17">
         <v>0</v>
@@ -3259,18 +3255,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="17">
         <v>0</v>
@@ -3279,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -3290,7 +3286,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F24" s="17">
         <v>0</v>
@@ -3299,18 +3295,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="17">
@@ -3320,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>21</v>
       </c>
@@ -3331,7 +3327,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
@@ -3340,18 +3336,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>22</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="17">
@@ -3361,18 +3357,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" s="17">
         <v>0</v>
@@ -3381,18 +3377,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="17">
@@ -3402,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -3413,7 +3409,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F30" s="17">
         <v>0</v>
@@ -3422,18 +3418,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>26</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="17">
@@ -3443,18 +3439,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>27</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="17">
@@ -3464,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>28</v>
       </c>
@@ -3472,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>38</v>
@@ -3484,18 +3480,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>29</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="17">
@@ -3505,18 +3501,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>30</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="17">
@@ -3526,15 +3522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>31</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -3545,18 +3541,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>32</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="D37" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="17">
@@ -3566,18 +3562,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>33</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="17">
@@ -3587,18 +3583,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>34</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" s="17">
         <v>0</v>
@@ -3607,18 +3603,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>35</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="17">
@@ -3628,18 +3624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>36</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="17">
         <v>0</v>
@@ -3648,18 +3644,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>37</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="17">
@@ -3669,18 +3665,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>38</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F43" s="17">
         <v>0</v>
@@ -3689,18 +3685,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>39</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
@@ -3709,18 +3705,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>40</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="17">
         <v>0</v>
@@ -3729,18 +3725,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>41</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="17">
@@ -3750,18 +3746,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>42</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="D47" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="17">
@@ -3771,12 +3767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>4</v>
       </c>
@@ -3784,68 +3780,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>1</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>2</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>3</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>4</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>5</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>6</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>7</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>4</v>
       </c>
@@ -3856,33 +3852,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>1</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>2</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>11</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>7</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>9</v>
       </c>
@@ -3906,15 +3902,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>13</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>20</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>12</v>
       </c>
@@ -3930,7 +3926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>29</v>
       </c>
@@ -3938,7 +3934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>39</v>
       </c>
@@ -3946,12 +3942,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>3</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>35</v>
       </c>
@@ -3967,12 +3963,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>26</v>
       </c>
@@ -3980,7 +3976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>30</v>
       </c>
@@ -4003,16 +3999,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4020,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>634</v>
       </c>
@@ -4028,12 +4024,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4053,7 +4049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4093,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -4117,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4137,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -4157,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -4217,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -4237,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -4258,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -4319,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -4339,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -4359,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -4370,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -4418,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -4433,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -4478,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -4493,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -4538,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -4568,12 +4564,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -4581,7 +4577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -4589,7 +4585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -4597,12 +4593,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -4613,17 +4609,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -4631,7 +4627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -4639,12 +4635,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>34</v>
       </c>
@@ -4664,16 +4660,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4681,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>537</v>
       </c>
@@ -4689,12 +4685,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4714,7 +4710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4754,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -4805,7 +4801,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>39</v>
@@ -4817,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -4857,19 +4853,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4878,74 +4874,74 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -4962,17 +4958,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -4988,7 +4984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -4996,7 +4992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -5004,7 +5000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -5020,12 +5016,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -5036,7 +5032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -5044,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -5052,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -5060,17 +5056,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28</v>
       </c>
@@ -5078,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>29</v>
       </c>
@@ -5086,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -5094,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -5102,7 +5098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7</v>
       </c>
@@ -5110,7 +5106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>12</v>
       </c>
@@ -5118,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -5126,7 +5122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>25</v>
       </c>
@@ -5134,7 +5130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21</v>
       </c>
@@ -5142,12 +5138,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18</v>
       </c>
@@ -5155,7 +5151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>30</v>
       </c>
@@ -5163,12 +5159,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9</v>
       </c>
@@ -5197,16 +5193,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5214,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1593</v>
       </c>
@@ -5222,12 +5218,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5287,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -5311,7 +5307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -5331,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -5351,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -5392,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -5412,19 +5408,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5433,74 +5429,74 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +5504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -5516,7 +5512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -5524,12 +5520,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -5540,22 +5536,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>34</v>
       </c>
@@ -5575,16 +5571,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5592,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>561</v>
       </c>
@@ -5600,12 +5596,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -5689,7 +5685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -5709,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -5729,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -5749,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -5769,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -5789,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -5869,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -5889,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -5909,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -5929,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -5949,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5958,74 +5954,74 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -6042,17 +6038,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -6060,7 +6056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -6068,7 +6064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -6076,7 +6072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -6084,12 +6080,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -6100,22 +6096,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>34</v>
       </c>
@@ -6135,16 +6131,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6152,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>734</v>
       </c>
@@ -6160,12 +6156,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6185,7 +6181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6205,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -6248,7 +6244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -6268,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -6288,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -6328,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -6348,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -6368,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -6388,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -6408,18 +6404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
@@ -6428,82 +6424,82 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -6511,32 +6507,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
@@ -6556,16 +6552,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6573,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>900</v>
       </c>
@@ -6581,12 +6577,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6606,7 +6602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6626,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -6665,7 +6661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -6684,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -6700,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -6719,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -6751,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -6779,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -6807,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -6818,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -6829,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -6840,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -6851,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -6873,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -6884,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -6899,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -6914,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -6944,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -6974,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -6989,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -7004,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -7019,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -7034,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -7049,12 +7045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -7071,17 +7067,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -7097,7 +7093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -7105,7 +7101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -7113,7 +7109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -7121,7 +7117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -7129,12 +7125,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -7145,7 +7141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -7153,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -7161,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -7169,17 +7165,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28</v>
       </c>
@@ -7187,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>29</v>
       </c>
@@ -7195,7 +7191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -7203,7 +7199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -7211,7 +7207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>7</v>
       </c>
@@ -7219,7 +7215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>12</v>
       </c>
@@ -7227,7 +7223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -7235,7 +7231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>25</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21</v>
       </c>
@@ -7251,12 +7247,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>18</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>30</v>
       </c>
@@ -7272,12 +7268,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9</v>
       </c>
@@ -7306,16 +7302,16 @@
       <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7323,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1696</v>
       </c>
@@ -7331,12 +7327,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7356,7 +7352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -7396,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -7420,7 +7416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -7440,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -7480,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -7501,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -7521,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -7542,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -7562,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -7582,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -7602,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -7622,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -7662,25 +7658,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -7689,56 +7685,56 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -7746,7 +7742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -7754,7 +7750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -7762,12 +7758,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -7775,22 +7771,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>34</v>
       </c>
@@ -7810,16 +7806,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1632</v>
       </c>
@@ -7835,12 +7831,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7860,7 +7856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7880,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -7900,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -7923,7 +7919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -7943,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -7963,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -7983,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -8003,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -8023,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -8043,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -8064,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -8084,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -8104,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -8124,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -8144,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -8184,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -8224,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -8233,74 +8229,74 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -8308,7 +8304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -8316,7 +8312,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -8332,7 +8328,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -8348,12 +8344,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -8364,7 +8360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -8380,22 +8376,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>34</v>
       </c>
